--- a/Projects/PNGAMERICA/Data/Template_v4.1.xlsx
+++ b/Projects/PNGAMERICA/Data/Template_v4.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="block and availability" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,20 +24,21 @@
     <sheet name="relative" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1038,7 +1039,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.1619433198381"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.8016194331984"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1135,10 +1136,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="149.858299595142"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="151.251012145749"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1294,12 +1295,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.5546558704453"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.0931174089069"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1390,13 +1391,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.8825910931174"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1567,9 +1568,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="101.761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.9878542510121"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.3441295546559"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
@@ -1632,16 +1633,16 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.9878542510121"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1784,6 +1785,18 @@
       </c>
       <c r="I4" s="0" t="s">
         <v>202</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1810,10 +1823,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="107.441295546559"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.5910931174089"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.404858299595"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.2753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2099,10 +2112,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="107.546558704453"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.4493927125506"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.51012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.1295546558704"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2758,11 +2771,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.1578947368421"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3509,12 +3522,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="152.538461538462"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="153.931174089069"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9554655870445"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4862,15 +4875,15 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5146,9 +5159,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="101.761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.9878542510121"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5604,10 +5617,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="119.331983805668"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="120.400809716599"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5993,10 +6006,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="101.761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="85.6963562753036"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.4453441295547"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -12246,7 +12259,7 @@
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F357"/>
+  <autoFilter ref="A1:F337"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/PNGAMERICA/Data/Template_v4.1.xlsx
+++ b/Projects/PNGAMERICA/Data/Template_v4.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="block and availability" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,21 +24,22 @@
     <sheet name="relative" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -346,7 +347,7 @@
     <t>BLEACH AND LAUNDRY ADDITIVES</t>
   </si>
   <si>
-    <t>P&amp;G CATEGORY</t>
+    <t>PG_CATEGORY</t>
   </si>
   <si>
     <t>TOTAL FABRIC CONDITIONERS</t>
@@ -1039,7 +1040,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.8016194331984"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="83.5546558704453"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1136,10 +1137,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="151.251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="152.538461538462"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1295,12 +1296,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.0931174089069"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.7327935222672"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1391,13 +1392,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.2064777327935"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1568,9 +1569,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.692307692308"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7732793522267"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
@@ -1633,16 +1634,16 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.5222672064777"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1823,10 +1824,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.404858299595"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2112,10 +2113,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.51012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.9878542510121"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.1295546558704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="109.473684210526"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.5587044534413"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2771,11 +2772,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3522,12 +3523,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="153.931174089069"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="155.323886639676"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2793522267206"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4875,15 +4876,15 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5159,9 +5160,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.692307692308"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7732793522267"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5617,10 +5618,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="120.400809716599"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="121.473684210526"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6006,10 +6007,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="102.728744939271"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.4453441295547"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.692307692308"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.1943319838057"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -12259,7 +12260,7 @@
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F337"/>
+  <autoFilter ref="A1:F357"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/PNGAMERICA/Data/Template_v4.1.xlsx
+++ b/Projects/PNGAMERICA/Data/Template_v4.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="block and availability" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,24 +22,30 @@
     <sheet name="orchestrated new" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="bookend" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="relative" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="average shelf" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="205">
   <si>
     <t>kpi Name</t>
   </si>
@@ -515,6 +521,18 @@
     <t>Adjacency:One_Brush_Adj:ORAL CARE</t>
   </si>
   <si>
+    <t>Shelves:Num_of_Shleves:{category}</t>
+  </si>
+  <si>
+    <t>average shelf</t>
+  </si>
+  <si>
+    <t>Orchestration:Absorbency_Orchestration:FEM CARE</t>
+  </si>
+  <si>
+    <t>Orchestration:Absorbency_Orchestration:AI</t>
+  </si>
+  <si>
     <t>brand_list</t>
   </si>
   <si>
@@ -560,19 +578,13 @@
     <t>y</t>
   </si>
   <si>
-    <t>Orchestration:Absorbency_Orchestration:FEM CARE</t>
-  </si>
-  <si>
-    <t>1 – REGULAR, 2 - LONG SUPER, 3 - EXTRA LONG SUPER, 4 – OVERNIGHT, 5 - EXTRA HEAVY OVERNIGHT</t>
+    <t>1 - REGULAR, 2 - LONG SUPER, 3 - EXTRA LONG SUPER, 4 - OVERNIGHT, 5 - EXTRA HEAVY OVERNIGHT</t>
   </si>
   <si>
     <t>COVERAGE</t>
   </si>
   <si>
     <t>right, left</t>
-  </si>
-  <si>
-    <t>Orchestration:Absorbency_Orchestration:AI</t>
   </si>
   <si>
     <t>MAXIMUM, ULTIMATE, MODERATE, VERY LIGHT, ULTRA THIN</t>
@@ -1040,7 +1052,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="83.5546558704453"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.1943319838057"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1137,10 +1149,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="152.538461538462"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="159.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1161,7 +1173,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1296,12 +1308,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.7327935222672"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.7327935222672"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1316,7 +1328,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>19</v>
@@ -1336,13 +1348,13 @@
         <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>36</v>
@@ -1356,13 +1368,13 @@
         <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>36</v>
@@ -1386,19 +1398,19 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.2024291497976"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.0242914979757"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1407,22 +1419,22 @@
         <v>16</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,13 +1445,13 @@
         <v>21</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>36</v>
@@ -1453,19 +1465,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,13 +1488,13 @@
         <v>21</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>36</v>
@@ -1496,13 +1508,13 @@
         <v>21</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>36</v>
@@ -1513,36 +1525,36 @@
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1569,9 +1581,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.692307692308"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.404858299595"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.0242914979757"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
@@ -1587,7 +1599,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>19</v>
@@ -1607,13 +1619,13 @@
         <v>22</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1635,15 +1647,15 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.9878542510121"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1652,52 +1664,52 @@
         <v>16</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,37 +1720,37 @@
         <v>26</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>194</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>1</v>
@@ -1755,14 +1767,14 @@
         <v>22</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D3" s="26"/>
       <c r="H3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N3" s="26" t="n">
         <v>1</v>
@@ -1779,13 +1791,13 @@
         <v>26</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>1</v>
@@ -1798,6 +1810,66 @@
       </c>
       <c r="Q4" s="0" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1824,10 +1896,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="109.368421052632"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="114.295546558704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2113,10 +2185,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="109.473684210526"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="114.404858299595"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2772,11 +2844,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.7651821862348"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="100.048582995951"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3523,12 +3595,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="155.323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="162.392712550607"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4876,15 +4948,15 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="83.8744939271255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5160,9 +5232,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.692307692308"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.404858299595"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5618,10 +5690,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="121.473684210526"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="127.044534412955"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5999,18 +6071,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F368"/>
+  <dimension ref="A1:F372"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A232" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A254" activeCellId="0" sqref="A254"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C345" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D376" activeCellId="0" sqref="D376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.692307692308"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.1943319838057"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="108.404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="91.0526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -12256,11 +12328,93 @@
         <v>133</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D368" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E368" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C369" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D369" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E369" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C370" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D370" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E370" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B371" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D371" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E371" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B372" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C372" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D372" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E372" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F357"/>
+  <autoFilter ref="A1:F337"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/PNGAMERICA/Data/Template_v4.1.xlsx
+++ b/Projects/PNGAMERICA/Data/Template_v4.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="block and availability" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,27 +25,28 @@
     <sheet name="average shelf" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="205">
   <si>
     <t>kpi Name</t>
   </si>
@@ -155,33 +156,42 @@
     <t>ORAL CARE</t>
   </si>
   <si>
+    <t>BLEACH AND LAUNDRY ADDITIVES</t>
+  </si>
+  <si>
+    <t>TOTAL FABRIC CONDITIONERS</t>
+  </si>
+  <si>
+    <t>TOTAL LAUNDRY CARE</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>Location:Eye_Level:{category}:BRAND={brand_name}</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Location:Eye_Level:{category}:MFG={manufacturer_name}</t>
+  </si>
+  <si>
+    <t>Location:Eye_Level:{category}:SEG={SEGMENT}</t>
+  </si>
+  <si>
+    <t>Location:Eye_Level:{category}:BRAND={brand_name}:SEG={SEGMENT}</t>
+  </si>
+  <si>
+    <t>Location:Eye_Level:{category}:SBRAND={Sub Brand}:SEG={SEGMENT}</t>
+  </si>
+  <si>
     <t>FABRICARE</t>
   </si>
   <si>
-    <t>percentage</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>Location:Eye_Level:{category}:BRAND={brand_name}</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Location:Eye_Level:{category}:MFG={manufacturer_name}</t>
-  </si>
-  <si>
-    <t>Location:Eye_Level:{category}:SEG={SEGMENT}</t>
-  </si>
-  <si>
-    <t>Location:Eye_Level:{category}:BRAND={brand_name}:SEG={SEGMENT}</t>
-  </si>
-  <si>
-    <t>Location:Eye_Level:{category}:SBRAND={Sub Brand}:SEG={SEGMENT}</t>
-  </si>
-  <si>
     <t>Location:Eye_Level_List:{category}:BRAND={brand_name}</t>
   </si>
   <si>
@@ -350,16 +360,7 @@
     <t>Spacing:Category_Space:{category}:NATURALS={NATURALS}</t>
   </si>
   <si>
-    <t>BLEACH AND LAUNDRY ADDITIVES</t>
-  </si>
-  <si>
     <t>PG_CATEGORY</t>
-  </si>
-  <si>
-    <t>TOTAL FABRIC CONDITIONERS</t>
-  </si>
-  <si>
-    <t>TOTAL LAUNDRY CARE</t>
   </si>
   <si>
     <t>count</t>
@@ -1052,7 +1053,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.1943319838057"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.9433198380567"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1149,10 +1150,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="159.497975708502"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="160.890688259109"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1161,7 +1162,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>17</v>
@@ -1200,7 +1201,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,7 +1228,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,7 +1255,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,7 +1264,7 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>22</v>
@@ -1275,13 +1276,13 @@
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1308,12 +1309,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.7327935222672"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.3765182186235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1334,7 +1335,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>101</v>
@@ -1357,7 +1358,7 @@
         <v>162</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,7 +1378,7 @@
         <v>163</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1398,19 +1399,19 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.2024291497976"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.3481781376518"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1422,7 +1423,7 @@
         <v>164</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>165</v>
@@ -1454,7 +1455,7 @@
         <v>171</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,7 +1475,7 @@
         <v>171</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>172</v>
@@ -1497,7 +1498,7 @@
         <v>171</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,10 +1518,10 @@
         <v>171</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,9 +1582,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.404858299595"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.4534412955466"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
@@ -1605,7 +1606,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,10 +1653,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.5222672064777"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1836,7 +1837,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1853,7 +1854,7 @@
         <v>154</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,7 +1862,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,7 +1870,7 @@
         <v>154</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1888,18 +1889,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="114.295546558704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="115.368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.8461538461539"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2161,6 +2162,143 @@
         <v>26</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -2185,10 +2323,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="114.404858299595"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.3076923076923"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="115.473684210526"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.4493927125506"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2206,15 +2344,15 @@
         <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>21</v>
@@ -2223,12 +2361,12 @@
         <v>22</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>21</v>
@@ -2237,26 +2375,26 @@
         <v>24</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>21</v>
@@ -2268,12 +2406,12 @@
         <v>26</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
@@ -2285,12 +2423,12 @@
         <v>26</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>29</v>
@@ -2299,12 +2437,12 @@
         <v>22</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>29</v>
@@ -2313,26 +2451,26 @@
         <v>24</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>29</v>
@@ -2344,12 +2482,12 @@
         <v>26</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>29</v>
@@ -2361,12 +2499,12 @@
         <v>26</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>31</v>
@@ -2375,12 +2513,12 @@
         <v>22</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>31</v>
@@ -2389,26 +2527,26 @@
         <v>24</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>31</v>
@@ -2420,12 +2558,12 @@
         <v>26</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>31</v>
@@ -2437,57 +2575,57 @@
         <v>26</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>22</v>
@@ -2496,15 +2634,15 @@
         <v>26</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>8</v>
@@ -2513,12 +2651,12 @@
         <v>26</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>21</v>
@@ -2527,12 +2665,12 @@
         <v>22</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>21</v>
@@ -2541,12 +2679,12 @@
         <v>24</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>21</v>
@@ -2555,12 +2693,12 @@
         <v>26</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>21</v>
@@ -2572,12 +2710,12 @@
         <v>26</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>21</v>
@@ -2589,12 +2727,12 @@
         <v>26</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>29</v>
@@ -2603,12 +2741,12 @@
         <v>22</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>29</v>
@@ -2617,12 +2755,12 @@
         <v>24</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>29</v>
@@ -2631,12 +2769,12 @@
         <v>26</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>29</v>
@@ -2648,12 +2786,12 @@
         <v>26</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>29</v>
@@ -2665,12 +2803,12 @@
         <v>26</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>31</v>
@@ -2679,12 +2817,12 @@
         <v>22</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>31</v>
@@ -2693,12 +2831,12 @@
         <v>24</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>31</v>
@@ -2707,12 +2845,12 @@
         <v>26</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>31</v>
@@ -2724,12 +2862,12 @@
         <v>26</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>31</v>
@@ -2741,57 +2879,57 @@
         <v>26</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>22</v>
@@ -2800,15 +2938,15 @@
         <v>26</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>8</v>
@@ -2817,7 +2955,7 @@
         <v>26</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2844,11 +2982,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="100.048582995951"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="100.906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2866,18 +3004,18 @@
         <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>21</v>
@@ -2886,12 +3024,12 @@
         <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>21</v>
@@ -2900,12 +3038,12 @@
         <v>22</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>21</v>
@@ -2914,12 +3052,12 @@
         <v>24</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>21</v>
@@ -2928,12 +3066,12 @@
         <v>24</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
@@ -2942,12 +3080,12 @@
         <v>26</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>21</v>
@@ -2956,12 +3094,12 @@
         <v>26</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>21</v>
@@ -2970,12 +3108,12 @@
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>21</v>
@@ -2984,12 +3122,12 @@
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>21</v>
@@ -2998,12 +3136,12 @@
         <v>6</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>21</v>
@@ -3012,12 +3150,12 @@
         <v>6</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>21</v>
@@ -3026,7 +3164,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>26</v>
@@ -3034,7 +3172,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>21</v>
@@ -3043,7 +3181,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>26</v>
@@ -3051,7 +3189,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>29</v>
@@ -3060,12 +3198,12 @@
         <v>22</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>29</v>
@@ -3074,12 +3212,12 @@
         <v>22</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>29</v>
@@ -3088,12 +3226,12 @@
         <v>24</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>29</v>
@@ -3102,12 +3240,12 @@
         <v>24</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>29</v>
@@ -3116,12 +3254,12 @@
         <v>26</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>29</v>
@@ -3130,12 +3268,12 @@
         <v>26</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>29</v>
@@ -3144,12 +3282,12 @@
         <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>29</v>
@@ -3158,12 +3296,12 @@
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>29</v>
@@ -3172,12 +3310,12 @@
         <v>6</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>29</v>
@@ -3186,12 +3324,12 @@
         <v>6</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>29</v>
@@ -3200,7 +3338,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>26</v>
@@ -3208,7 +3346,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>29</v>
@@ -3217,7 +3355,7 @@
         <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>26</v>
@@ -3225,7 +3363,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>31</v>
@@ -3234,12 +3372,12 @@
         <v>22</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>31</v>
@@ -3248,12 +3386,12 @@
         <v>22</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>31</v>
@@ -3262,12 +3400,12 @@
         <v>24</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>31</v>
@@ -3276,12 +3414,12 @@
         <v>24</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>31</v>
@@ -3290,12 +3428,12 @@
         <v>26</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>31</v>
@@ -3304,12 +3442,12 @@
         <v>26</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>31</v>
@@ -3318,12 +3456,12 @@
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>31</v>
@@ -3332,12 +3470,12 @@
         <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>31</v>
@@ -3346,12 +3484,12 @@
         <v>6</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>31</v>
@@ -3360,12 +3498,12 @@
         <v>6</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>31</v>
@@ -3374,7 +3512,7 @@
         <v>22</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>26</v>
@@ -3382,7 +3520,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>31</v>
@@ -3391,7 +3529,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>26</v>
@@ -3399,156 +3537,156 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>26</v>
@@ -3556,16 +3694,16 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>26</v>
@@ -3595,12 +3733,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="162.392712550607"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="163.890688259109"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3609,7 +3747,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>17</v>
@@ -3621,30 +3759,30 @@
         <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>21</v>
@@ -3655,10 +3793,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>21</v>
@@ -3669,10 +3807,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>21</v>
@@ -3683,10 +3821,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>21</v>
@@ -3700,10 +3838,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>21</v>
@@ -3717,10 +3855,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>21</v>
@@ -3729,15 +3867,15 @@
         <v>26</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>21</v>
@@ -3746,15 +3884,15 @@
         <v>22</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>21</v>
@@ -3763,15 +3901,15 @@
         <v>24</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>21</v>
@@ -3780,15 +3918,15 @@
         <v>26</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>21</v>
@@ -3800,15 +3938,15 @@
         <v>26</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>21</v>
@@ -3820,15 +3958,15 @@
         <v>26</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>21</v>
@@ -3837,18 +3975,18 @@
         <v>26</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>21</v>
@@ -3857,18 +3995,18 @@
         <v>24</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>29</v>
@@ -3879,10 +4017,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>29</v>
@@ -3893,10 +4031,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>29</v>
@@ -3907,10 +4045,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>29</v>
@@ -3924,10 +4062,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>29</v>
@@ -3941,10 +4079,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>29</v>
@@ -3953,15 +4091,15 @@
         <v>26</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>29</v>
@@ -3970,15 +4108,15 @@
         <v>22</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>29</v>
@@ -3987,15 +4125,15 @@
         <v>24</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>29</v>
@@ -4004,15 +4142,15 @@
         <v>26</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>29</v>
@@ -4024,15 +4162,15 @@
         <v>26</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>29</v>
@@ -4044,15 +4182,15 @@
         <v>26</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>29</v>
@@ -4061,18 +4199,18 @@
         <v>26</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>29</v>
@@ -4081,18 +4219,18 @@
         <v>24</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>31</v>
@@ -4103,10 +4241,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>31</v>
@@ -4117,10 +4255,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>31</v>
@@ -4131,10 +4269,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>31</v>
@@ -4148,10 +4286,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>31</v>
@@ -4165,10 +4303,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>31</v>
@@ -4177,15 +4315,15 @@
         <v>26</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>31</v>
@@ -4194,15 +4332,15 @@
         <v>22</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>31</v>
@@ -4211,15 +4349,15 @@
         <v>24</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -4228,15 +4366,15 @@
         <v>26</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>31</v>
@@ -4248,15 +4386,15 @@
         <v>26</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>31</v>
@@ -4268,15 +4406,15 @@
         <v>26</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>31</v>
@@ -4285,18 +4423,18 @@
         <v>26</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>31</v>
@@ -4305,21 +4443,21 @@
         <v>24</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>22</v>
@@ -4327,13 +4465,13 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>24</v>
@@ -4341,13 +4479,13 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>26</v>
@@ -4355,13 +4493,13 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="C44" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>22</v>
@@ -4372,13 +4510,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>8</v>
@@ -4389,81 +4527,81 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>22</v>
@@ -4472,18 +4610,18 @@
         <v>26</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>8</v>
@@ -4492,55 +4630,55 @@
         <v>26</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>21</v>
@@ -4551,10 +4689,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>21</v>
@@ -4565,10 +4703,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>21</v>
@@ -4579,10 +4717,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>21</v>
@@ -4596,10 +4734,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>21</v>
@@ -4613,10 +4751,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>21</v>
@@ -4625,18 +4763,18 @@
         <v>26</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>22</v>
@@ -4644,13 +4782,13 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>24</v>
@@ -4658,13 +4796,13 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>26</v>
@@ -4672,13 +4810,13 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="C63" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>22</v>
@@ -4689,13 +4827,13 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>8</v>
@@ -4706,27 +4844,27 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>31</v>
@@ -4737,10 +4875,10 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>31</v>
@@ -4751,10 +4889,10 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>31</v>
@@ -4765,10 +4903,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>31</v>
@@ -4782,10 +4920,10 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>31</v>
@@ -4799,10 +4937,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>31</v>
@@ -4811,15 +4949,15 @@
         <v>26</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>29</v>
@@ -4830,10 +4968,10 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>29</v>
@@ -4844,10 +4982,10 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>29</v>
@@ -4858,10 +4996,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>29</v>
@@ -4875,10 +5013,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>29</v>
@@ -4892,10 +5030,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>29</v>
@@ -4904,15 +5042,15 @@
         <v>26</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>31</v>
@@ -4921,13 +5059,13 @@
         <v>22</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4949,14 +5087,14 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.6234817813765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.7368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="88.4817813765182"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.2712550607287"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4976,7 +5114,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>21</v>
@@ -4987,7 +5125,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>21</v>
@@ -5001,7 +5139,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>21</v>
@@ -5015,7 +5153,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>29</v>
@@ -5026,7 +5164,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>29</v>
@@ -5040,7 +5178,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>29</v>
@@ -5054,7 +5192,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>31</v>
@@ -5065,7 +5203,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>31</v>
@@ -5079,7 +5217,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>31</v>
@@ -5093,24 +5231,24 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>26</v>
@@ -5118,13 +5256,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>6</v>
@@ -5132,24 +5270,24 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>26</v>
@@ -5157,13 +5295,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>6</v>
@@ -5171,24 +5309,24 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>26</v>
@@ -5196,13 +5334,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>6</v>
@@ -5232,9 +5370,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.404858299595"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.4534412955466"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5360,7 +5498,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>104</v>
@@ -5456,7 +5594,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>104</v>
@@ -5564,7 +5702,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>104</v>
@@ -5578,7 +5716,7 @@
         <v>103</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>22</v>
@@ -5592,7 +5730,7 @@
         <v>106</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>22</v>
@@ -5609,7 +5747,7 @@
         <v>107</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>26</v>
@@ -5623,7 +5761,7 @@
         <v>108</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>24</v>
@@ -5637,7 +5775,7 @@
         <v>109</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>8</v>
@@ -5654,13 +5792,13 @@
         <v>110</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>104</v>
@@ -5690,10 +5828,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="127.044534412955"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="128.113360323887"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5783,7 +5921,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5869,7 +6007,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5955,7 +6093,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5974,7 +6112,7 @@
         <v>111</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>22</v>
@@ -5985,7 +6123,7 @@
         <v>112</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>22</v>
@@ -5999,7 +6137,7 @@
         <v>113</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>26</v>
@@ -6010,7 +6148,7 @@
         <v>114</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>24</v>
@@ -6021,7 +6159,7 @@
         <v>115</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>8</v>
@@ -6035,13 +6173,13 @@
         <v>116</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6049,7 +6187,7 @@
         <v>117</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>6</v>
@@ -6071,18 +6209,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F372"/>
+  <dimension ref="A1:F396"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C345" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D376" activeCellId="0" sqref="D376"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A362" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C368" activeCellId="0" sqref="C368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="108.404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="91.0526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="91.8016194331984"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6196,7 +6334,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>21</v>
@@ -6213,7 +6351,7 @@
         <v>122</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>21</v>
@@ -6230,7 +6368,7 @@
         <v>122</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>21</v>
@@ -6247,7 +6385,7 @@
         <v>122</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>21</v>
@@ -6264,7 +6402,7 @@
         <v>122</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>21</v>
@@ -6281,7 +6419,7 @@
         <v>122</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>21</v>
@@ -6298,7 +6436,7 @@
         <v>122</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>21</v>
@@ -6315,7 +6453,7 @@
         <v>122</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>21</v>
@@ -6332,7 +6470,7 @@
         <v>122</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>21</v>
@@ -6349,7 +6487,7 @@
         <v>122</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>21</v>
@@ -6366,7 +6504,7 @@
         <v>122</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>21</v>
@@ -6383,7 +6521,7 @@
         <v>122</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>21</v>
@@ -6400,7 +6538,7 @@
         <v>122</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>21</v>
@@ -6417,7 +6555,7 @@
         <v>122</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>21</v>
@@ -6434,7 +6572,7 @@
         <v>122</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>21</v>
@@ -6451,7 +6589,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>21</v>
@@ -6468,7 +6606,7 @@
         <v>122</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>21</v>
@@ -6485,7 +6623,7 @@
         <v>122</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>21</v>
@@ -6502,7 +6640,7 @@
         <v>122</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>21</v>
@@ -6519,7 +6657,7 @@
         <v>122</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>21</v>
@@ -6536,7 +6674,7 @@
         <v>122</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>21</v>
@@ -6553,7 +6691,7 @@
         <v>122</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>21</v>
@@ -6570,7 +6708,7 @@
         <v>122</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>21</v>
@@ -6587,7 +6725,7 @@
         <v>122</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>21</v>
@@ -6604,7 +6742,7 @@
         <v>122</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>21</v>
@@ -6621,7 +6759,7 @@
         <v>122</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>21</v>
@@ -6638,7 +6776,7 @@
         <v>122</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>21</v>
@@ -6655,7 +6793,7 @@
         <v>122</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>21</v>
@@ -6672,7 +6810,7 @@
         <v>122</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>21</v>
@@ -6689,7 +6827,7 @@
         <v>122</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>21</v>
@@ -6706,7 +6844,7 @@
         <v>122</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>21</v>
@@ -6723,7 +6861,7 @@
         <v>122</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>21</v>
@@ -6995,7 +7133,7 @@
         <v>122</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>21</v>
@@ -7012,7 +7150,7 @@
         <v>122</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>21</v>
@@ -7029,7 +7167,7 @@
         <v>122</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>21</v>
@@ -7046,7 +7184,7 @@
         <v>122</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>21</v>
@@ -7063,7 +7201,7 @@
         <v>122</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>21</v>
@@ -7080,7 +7218,7 @@
         <v>122</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>21</v>
@@ -7097,7 +7235,7 @@
         <v>122</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>21</v>
@@ -7114,7 +7252,7 @@
         <v>122</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>21</v>
@@ -7131,7 +7269,7 @@
         <v>122</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>21</v>
@@ -7148,7 +7286,7 @@
         <v>122</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>21</v>
@@ -7165,7 +7303,7 @@
         <v>122</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>21</v>
@@ -7381,7 +7519,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>139</v>
       </c>
@@ -7398,7 +7536,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>139</v>
       </c>
@@ -7415,7 +7553,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>139</v>
       </c>
@@ -7432,7 +7570,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>139</v>
       </c>
@@ -7449,7 +7587,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>139</v>
       </c>
@@ -7474,7 +7612,7 @@
         <v>141</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>140</v>
@@ -7488,7 +7626,7 @@
         <v>143</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>29</v>
@@ -7505,7 +7643,7 @@
         <v>143</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>29</v>
@@ -7522,7 +7660,7 @@
         <v>143</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>29</v>
@@ -7539,7 +7677,7 @@
         <v>143</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>29</v>
@@ -7556,7 +7694,7 @@
         <v>143</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>29</v>
@@ -7573,7 +7711,7 @@
         <v>143</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>29</v>
@@ -7590,7 +7728,7 @@
         <v>143</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>29</v>
@@ -7607,7 +7745,7 @@
         <v>143</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>29</v>
@@ -7624,7 +7762,7 @@
         <v>143</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>29</v>
@@ -7641,7 +7779,7 @@
         <v>143</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>29</v>
@@ -7658,7 +7796,7 @@
         <v>143</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>29</v>
@@ -7675,7 +7813,7 @@
         <v>143</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>29</v>
@@ -7692,7 +7830,7 @@
         <v>143</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>29</v>
@@ -7709,7 +7847,7 @@
         <v>143</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>29</v>
@@ -7726,7 +7864,7 @@
         <v>143</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>29</v>
@@ -7743,7 +7881,7 @@
         <v>143</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>29</v>
@@ -7760,7 +7898,7 @@
         <v>143</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>29</v>
@@ -7777,7 +7915,7 @@
         <v>143</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>29</v>
@@ -7794,7 +7932,7 @@
         <v>143</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>29</v>
@@ -7811,7 +7949,7 @@
         <v>143</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>29</v>
@@ -7828,7 +7966,7 @@
         <v>143</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>29</v>
@@ -7845,7 +7983,7 @@
         <v>143</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>29</v>
@@ -7862,7 +8000,7 @@
         <v>143</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>29</v>
@@ -7879,7 +8017,7 @@
         <v>143</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>29</v>
@@ -7896,7 +8034,7 @@
         <v>143</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>29</v>
@@ -7913,7 +8051,7 @@
         <v>143</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>29</v>
@@ -7930,7 +8068,7 @@
         <v>143</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>29</v>
@@ -7947,7 +8085,7 @@
         <v>143</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>29</v>
@@ -7964,7 +8102,7 @@
         <v>143</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>29</v>
@@ -7981,7 +8119,7 @@
         <v>143</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>29</v>
@@ -7998,7 +8136,7 @@
         <v>143</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>29</v>
@@ -8015,7 +8153,7 @@
         <v>143</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>29</v>
@@ -8287,7 +8425,7 @@
         <v>143</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>29</v>
@@ -8304,7 +8442,7 @@
         <v>143</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>29</v>
@@ -8321,7 +8459,7 @@
         <v>143</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>29</v>
@@ -8338,7 +8476,7 @@
         <v>143</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>29</v>
@@ -8355,7 +8493,7 @@
         <v>143</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>29</v>
@@ -8372,7 +8510,7 @@
         <v>143</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>29</v>
@@ -8389,7 +8527,7 @@
         <v>143</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>29</v>
@@ -8406,7 +8544,7 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>29</v>
@@ -8423,7 +8561,7 @@
         <v>143</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>29</v>
@@ -8440,7 +8578,7 @@
         <v>143</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>29</v>
@@ -8457,7 +8595,7 @@
         <v>143</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C140" s="11" t="s">
         <v>29</v>
@@ -8474,7 +8612,7 @@
         <v>134</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>31</v>
@@ -8491,7 +8629,7 @@
         <v>134</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C142" s="11" t="s">
         <v>31</v>
@@ -8508,7 +8646,7 @@
         <v>134</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>31</v>
@@ -8525,7 +8663,7 @@
         <v>134</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C144" s="11" t="s">
         <v>31</v>
@@ -8542,7 +8680,7 @@
         <v>134</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>31</v>
@@ -8559,7 +8697,7 @@
         <v>134</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>31</v>
@@ -8576,7 +8714,7 @@
         <v>134</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>31</v>
@@ -8593,7 +8731,7 @@
         <v>134</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>31</v>
@@ -8610,7 +8748,7 @@
         <v>134</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>31</v>
@@ -8627,7 +8765,7 @@
         <v>134</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>31</v>
@@ -8644,7 +8782,7 @@
         <v>134</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>31</v>
@@ -8661,7 +8799,7 @@
         <v>134</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>31</v>
@@ -8678,7 +8816,7 @@
         <v>134</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>31</v>
@@ -8695,7 +8833,7 @@
         <v>134</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>31</v>
@@ -8712,7 +8850,7 @@
         <v>134</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>31</v>
@@ -8729,7 +8867,7 @@
         <v>134</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>31</v>
@@ -8746,7 +8884,7 @@
         <v>134</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C157" s="11" t="s">
         <v>31</v>
@@ -8763,7 +8901,7 @@
         <v>134</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>31</v>
@@ -8780,7 +8918,7 @@
         <v>134</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>31</v>
@@ -8797,7 +8935,7 @@
         <v>134</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>31</v>
@@ -8814,7 +8952,7 @@
         <v>134</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>31</v>
@@ -8831,7 +8969,7 @@
         <v>134</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>31</v>
@@ -8848,7 +8986,7 @@
         <v>134</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>31</v>
@@ -8865,7 +9003,7 @@
         <v>134</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>31</v>
@@ -8882,7 +9020,7 @@
         <v>134</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>31</v>
@@ -8899,7 +9037,7 @@
         <v>134</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>31</v>
@@ -8916,7 +9054,7 @@
         <v>134</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>31</v>
@@ -8933,7 +9071,7 @@
         <v>134</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>31</v>
@@ -8950,7 +9088,7 @@
         <v>134</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>31</v>
@@ -8967,7 +9105,7 @@
         <v>134</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>31</v>
@@ -8984,7 +9122,7 @@
         <v>134</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>31</v>
@@ -9001,7 +9139,7 @@
         <v>134</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>31</v>
@@ -9273,7 +9411,7 @@
         <v>134</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>31</v>
@@ -9290,7 +9428,7 @@
         <v>134</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>31</v>
@@ -9307,7 +9445,7 @@
         <v>134</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>31</v>
@@ -9324,7 +9462,7 @@
         <v>134</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>31</v>
@@ -9341,7 +9479,7 @@
         <v>134</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>31</v>
@@ -9358,7 +9496,7 @@
         <v>134</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>31</v>
@@ -9375,7 +9513,7 @@
         <v>134</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>31</v>
@@ -9392,7 +9530,7 @@
         <v>134</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>31</v>
@@ -9409,7 +9547,7 @@
         <v>134</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>31</v>
@@ -9426,7 +9564,7 @@
         <v>134</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>31</v>
@@ -9443,7 +9581,7 @@
         <v>134</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>31</v>
@@ -9460,10 +9598,10 @@
         <v>139</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D199" s="15" t="s">
         <v>140</v>
@@ -9477,10 +9615,10 @@
         <v>139</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D200" s="15" t="s">
         <v>140</v>
@@ -9494,10 +9632,10 @@
         <v>139</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D201" s="15" t="s">
         <v>140</v>
@@ -9511,10 +9649,10 @@
         <v>139</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D202" s="15" t="s">
         <v>140</v>
@@ -9528,10 +9666,10 @@
         <v>139</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D203" s="15" t="s">
         <v>140</v>
@@ -9545,10 +9683,10 @@
         <v>139</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D204" s="15" t="s">
         <v>140</v>
@@ -9562,10 +9700,10 @@
         <v>139</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D205" s="15" t="s">
         <v>140</v>
@@ -9579,10 +9717,10 @@
         <v>139</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D206" s="15" t="s">
         <v>140</v>
@@ -9596,10 +9734,10 @@
         <v>139</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D207" s="15" t="s">
         <v>140</v>
@@ -9613,10 +9751,10 @@
         <v>139</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D208" s="15" t="s">
         <v>140</v>
@@ -9630,10 +9768,10 @@
         <v>139</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D209" s="15" t="s">
         <v>140</v>
@@ -9647,10 +9785,10 @@
         <v>139</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D210" s="15" t="s">
         <v>140</v>
@@ -9664,10 +9802,10 @@
         <v>139</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D211" s="15" t="s">
         <v>140</v>
@@ -9681,10 +9819,10 @@
         <v>139</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D212" s="15" t="s">
         <v>140</v>
@@ -9698,10 +9836,10 @@
         <v>139</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D213" s="15" t="s">
         <v>140</v>
@@ -9715,10 +9853,10 @@
         <v>139</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D214" s="15" t="s">
         <v>140</v>
@@ -9732,10 +9870,10 @@
         <v>139</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D215" s="15" t="s">
         <v>140</v>
@@ -9749,10 +9887,10 @@
         <v>139</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D216" s="15" t="s">
         <v>140</v>
@@ -9766,10 +9904,10 @@
         <v>139</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D217" s="15" t="s">
         <v>140</v>
@@ -9783,10 +9921,10 @@
         <v>139</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D218" s="15" t="s">
         <v>140</v>
@@ -9800,10 +9938,10 @@
         <v>139</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D219" s="15" t="s">
         <v>140</v>
@@ -9817,10 +9955,10 @@
         <v>139</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D220" s="15" t="s">
         <v>140</v>
@@ -9834,10 +9972,10 @@
         <v>139</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D221" s="15" t="s">
         <v>140</v>
@@ -9851,10 +9989,10 @@
         <v>139</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D222" s="15" t="s">
         <v>140</v>
@@ -9868,10 +10006,10 @@
         <v>139</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D223" s="15" t="s">
         <v>140</v>
@@ -9885,10 +10023,10 @@
         <v>139</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D224" s="15" t="s">
         <v>140</v>
@@ -9902,10 +10040,10 @@
         <v>139</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D225" s="15" t="s">
         <v>140</v>
@@ -9919,10 +10057,10 @@
         <v>139</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D226" s="15" t="s">
         <v>140</v>
@@ -9936,10 +10074,10 @@
         <v>139</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D227" s="15" t="s">
         <v>140</v>
@@ -9953,10 +10091,10 @@
         <v>139</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D228" s="15" t="s">
         <v>140</v>
@@ -9970,10 +10108,10 @@
         <v>139</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D229" s="15" t="s">
         <v>140</v>
@@ -9987,10 +10125,10 @@
         <v>139</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D230" s="15" t="s">
         <v>140</v>
@@ -10007,7 +10145,7 @@
         <v>111</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D231" s="15" t="s">
         <v>140</v>
@@ -10024,7 +10162,7 @@
         <v>112</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D232" s="15" t="s">
         <v>140</v>
@@ -10041,7 +10179,7 @@
         <v>113</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D233" s="15" t="s">
         <v>140</v>
@@ -10058,7 +10196,7 @@
         <v>114</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D234" s="15" t="s">
         <v>140</v>
@@ -10075,7 +10213,7 @@
         <v>115</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D235" s="15" t="s">
         <v>140</v>
@@ -10092,7 +10230,7 @@
         <v>116</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D236" s="15" t="s">
         <v>140</v>
@@ -10109,7 +10247,7 @@
         <v>117</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D237" s="15" t="s">
         <v>140</v>
@@ -10126,7 +10264,7 @@
         <v>103</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D238" s="15" t="s">
         <v>140</v>
@@ -10143,7 +10281,7 @@
         <v>106</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D239" s="15" t="s">
         <v>140</v>
@@ -10160,7 +10298,7 @@
         <v>107</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D240" s="15" t="s">
         <v>140</v>
@@ -10177,7 +10315,7 @@
         <v>108</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D241" s="15" t="s">
         <v>140</v>
@@ -10194,7 +10332,7 @@
         <v>109</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D242" s="15" t="s">
         <v>140</v>
@@ -10211,7 +10349,7 @@
         <v>110</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D243" s="15" t="s">
         <v>140</v>
@@ -10228,7 +10366,7 @@
         <v>130</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D244" s="15" t="s">
         <v>140</v>
@@ -10245,7 +10383,7 @@
         <v>132</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D245" s="15" t="s">
         <v>140</v>
@@ -10259,10 +10397,10 @@
         <v>139</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D246" s="15" t="s">
         <v>140</v>
@@ -10276,10 +10414,10 @@
         <v>139</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D247" s="15" t="s">
         <v>140</v>
@@ -10293,10 +10431,10 @@
         <v>139</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D248" s="15" t="s">
         <v>140</v>
@@ -10310,10 +10448,10 @@
         <v>139</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D249" s="15" t="s">
         <v>140</v>
@@ -10327,10 +10465,10 @@
         <v>139</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D250" s="15" t="s">
         <v>140</v>
@@ -10344,10 +10482,10 @@
         <v>139</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D251" s="15" t="s">
         <v>140</v>
@@ -10361,10 +10499,10 @@
         <v>139</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D252" s="15" t="s">
         <v>140</v>
@@ -10378,10 +10516,10 @@
         <v>139</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D253" s="15" t="s">
         <v>140</v>
@@ -10395,10 +10533,10 @@
         <v>139</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D254" s="15" t="s">
         <v>140</v>
@@ -10412,10 +10550,10 @@
         <v>139</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D255" s="15" t="s">
         <v>140</v>
@@ -10429,10 +10567,10 @@
         <v>139</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D256" s="15" t="s">
         <v>140</v>
@@ -10466,7 +10604,7 @@
         <v>141</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D258" s="15" t="s">
         <v>140</v>
@@ -10551,7 +10689,7 @@
         <v>151</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D263" s="15" t="s">
         <v>140</v>
@@ -10565,7 +10703,7 @@
         <v>122</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C264" s="11" t="s">
         <v>21</v>
@@ -10574,7 +10712,7 @@
         <v>123</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10582,7 +10720,7 @@
         <v>122</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C265" s="11" t="s">
         <v>21</v>
@@ -10591,7 +10729,7 @@
         <v>123</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10599,7 +10737,7 @@
         <v>122</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C266" s="11" t="s">
         <v>21</v>
@@ -10608,7 +10746,7 @@
         <v>123</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10616,16 +10754,16 @@
         <v>122</v>
       </c>
       <c r="B267" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D267" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E267" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="C267" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D267" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E267" s="0" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10633,7 +10771,7 @@
         <v>122</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C268" s="11" t="s">
         <v>21</v>
@@ -10642,7 +10780,7 @@
         <v>123</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10650,7 +10788,7 @@
         <v>122</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C269" s="11" t="s">
         <v>21</v>
@@ -10659,7 +10797,7 @@
         <v>123</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10667,16 +10805,16 @@
         <v>139</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D270" s="15" t="s">
         <v>140</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10684,16 +10822,16 @@
         <v>139</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D271" s="15" t="s">
         <v>140</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10701,16 +10839,16 @@
         <v>139</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D272" s="15" t="s">
         <v>140</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10718,16 +10856,16 @@
         <v>139</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D273" s="15" t="s">
         <v>140</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10735,16 +10873,16 @@
         <v>139</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D274" s="15" t="s">
         <v>140</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10752,16 +10890,16 @@
         <v>139</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D275" s="15" t="s">
         <v>140</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10769,7 +10907,7 @@
         <v>122</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C276" s="11" t="s">
         <v>21</v>
@@ -10786,7 +10924,7 @@
         <v>122</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C277" s="11" t="s">
         <v>21</v>
@@ -10803,7 +10941,7 @@
         <v>122</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C278" s="11" t="s">
         <v>21</v>
@@ -10820,7 +10958,7 @@
         <v>122</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C279" s="11" t="s">
         <v>21</v>
@@ -10837,7 +10975,7 @@
         <v>122</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>21</v>
@@ -10854,7 +10992,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>29</v>
@@ -10871,7 +11009,7 @@
         <v>143</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C282" s="11" t="s">
         <v>29</v>
@@ -10888,7 +11026,7 @@
         <v>143</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>29</v>
@@ -10905,7 +11043,7 @@
         <v>143</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>29</v>
@@ -10922,7 +11060,7 @@
         <v>143</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C285" s="11" t="s">
         <v>29</v>
@@ -10939,7 +11077,7 @@
         <v>134</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>31</v>
@@ -10956,7 +11094,7 @@
         <v>134</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C287" s="11" t="s">
         <v>31</v>
@@ -10973,7 +11111,7 @@
         <v>134</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>31</v>
@@ -10990,7 +11128,7 @@
         <v>134</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>31</v>
@@ -11007,7 +11145,7 @@
         <v>134</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>31</v>
@@ -11024,10 +11162,10 @@
         <v>139</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D291" s="15" t="s">
         <v>140</v>
@@ -11041,10 +11179,10 @@
         <v>139</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D292" s="15" t="s">
         <v>140</v>
@@ -11058,10 +11196,10 @@
         <v>139</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D293" s="15" t="s">
         <v>140</v>
@@ -11075,10 +11213,10 @@
         <v>139</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D294" s="15" t="s">
         <v>140</v>
@@ -11092,10 +11230,10 @@
         <v>139</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D295" s="15" t="s">
         <v>140</v>
@@ -11231,7 +11369,7 @@
         <v>111</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D303" s="15" t="s">
         <v>140</v>
@@ -11248,7 +11386,7 @@
         <v>112</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D304" s="15" t="s">
         <v>140</v>
@@ -11265,7 +11403,7 @@
         <v>113</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D305" s="15" t="s">
         <v>140</v>
@@ -11282,7 +11420,7 @@
         <v>114</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D306" s="15" t="s">
         <v>140</v>
@@ -11299,7 +11437,7 @@
         <v>115</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D307" s="15" t="s">
         <v>140</v>
@@ -11316,7 +11454,7 @@
         <v>116</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D308" s="15" t="s">
         <v>140</v>
@@ -11333,7 +11471,7 @@
         <v>117</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D309" s="15" t="s">
         <v>140</v>
@@ -11347,7 +11485,7 @@
         <v>134</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>31</v>
@@ -11364,7 +11502,7 @@
         <v>134</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>31</v>
@@ -11381,7 +11519,7 @@
         <v>134</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>31</v>
@@ -11398,7 +11536,7 @@
         <v>134</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>31</v>
@@ -11415,7 +11553,7 @@
         <v>134</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>31</v>
@@ -11432,7 +11570,7 @@
         <v>134</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>31</v>
@@ -11449,7 +11587,7 @@
         <v>134</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>31</v>
@@ -11466,7 +11604,7 @@
         <v>134</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>31</v>
@@ -11483,7 +11621,7 @@
         <v>134</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C318" s="11" t="s">
         <v>31</v>
@@ -11500,7 +11638,7 @@
         <v>134</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>31</v>
@@ -11517,7 +11655,7 @@
         <v>134</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C320" s="11" t="s">
         <v>31</v>
@@ -11534,7 +11672,7 @@
         <v>134</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C321" s="11" t="s">
         <v>31</v>
@@ -11551,10 +11689,10 @@
         <v>139</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D322" s="15" t="s">
         <v>140</v>
@@ -11568,10 +11706,10 @@
         <v>139</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D323" s="15" t="s">
         <v>140</v>
@@ -11585,10 +11723,10 @@
         <v>139</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D324" s="15" t="s">
         <v>140</v>
@@ -11602,10 +11740,10 @@
         <v>139</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D325" s="15" t="s">
         <v>140</v>
@@ -11619,10 +11757,10 @@
         <v>139</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D326" s="15" t="s">
         <v>140</v>
@@ -11636,10 +11774,10 @@
         <v>139</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D327" s="15" t="s">
         <v>140</v>
@@ -11653,10 +11791,10 @@
         <v>139</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D328" s="15" t="s">
         <v>140</v>
@@ -11670,10 +11808,10 @@
         <v>139</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D329" s="15" t="s">
         <v>140</v>
@@ -11687,10 +11825,10 @@
         <v>139</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D330" s="15" t="s">
         <v>140</v>
@@ -11704,10 +11842,10 @@
         <v>139</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D331" s="15" t="s">
         <v>140</v>
@@ -11721,10 +11859,10 @@
         <v>139</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D332" s="15" t="s">
         <v>140</v>
@@ -11738,10 +11876,10 @@
         <v>139</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D333" s="15" t="s">
         <v>140</v>
@@ -11792,7 +11930,7 @@
         <v>130</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D336" s="15" t="s">
         <v>140</v>
@@ -11809,7 +11947,7 @@
         <v>132</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D337" s="15" t="s">
         <v>140</v>
@@ -11823,7 +11961,7 @@
         <v>134</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C338" s="11" t="s">
         <v>31</v>
@@ -11840,7 +11978,7 @@
         <v>134</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>31</v>
@@ -11857,7 +11995,7 @@
         <v>134</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C340" s="11" t="s">
         <v>31</v>
@@ -11874,10 +12012,10 @@
         <v>139</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D341" s="15" t="s">
         <v>140</v>
@@ -11891,10 +12029,10 @@
         <v>139</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D342" s="15" t="s">
         <v>140</v>
@@ -11908,10 +12046,10 @@
         <v>139</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D343" s="15" t="s">
         <v>140</v>
@@ -11928,7 +12066,7 @@
         <v>14</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D344" s="15" t="s">
         <v>140</v>
@@ -11942,7 +12080,7 @@
         <v>134</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>31</v>
@@ -11951,7 +12089,7 @@
         <v>136</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11959,7 +12097,7 @@
         <v>134</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>31</v>
@@ -11968,7 +12106,7 @@
         <v>136</v>
       </c>
       <c r="E346" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11976,7 +12114,7 @@
         <v>134</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C347" s="11" t="s">
         <v>31</v>
@@ -11985,7 +12123,7 @@
         <v>136</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11993,7 +12131,7 @@
         <v>134</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>31</v>
@@ -12002,7 +12140,7 @@
         <v>136</v>
       </c>
       <c r="E348" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12010,7 +12148,7 @@
         <v>134</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C349" s="11" t="s">
         <v>31</v>
@@ -12019,7 +12157,7 @@
         <v>136</v>
       </c>
       <c r="E349" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12027,7 +12165,7 @@
         <v>134</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>31</v>
@@ -12036,7 +12174,7 @@
         <v>136</v>
       </c>
       <c r="E350" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12044,7 +12182,7 @@
         <v>143</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>29</v>
@@ -12053,7 +12191,7 @@
         <v>123</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12061,7 +12199,7 @@
         <v>143</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>29</v>
@@ -12070,7 +12208,7 @@
         <v>123</v>
       </c>
       <c r="E352" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12078,7 +12216,7 @@
         <v>143</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C353" s="11" t="s">
         <v>29</v>
@@ -12087,7 +12225,7 @@
         <v>123</v>
       </c>
       <c r="E353" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12095,16 +12233,16 @@
         <v>143</v>
       </c>
       <c r="B354" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C354" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D354" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E354" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="C354" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D354" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E354" s="0" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12112,7 +12250,7 @@
         <v>143</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>29</v>
@@ -12121,7 +12259,7 @@
         <v>123</v>
       </c>
       <c r="E355" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12129,7 +12267,7 @@
         <v>143</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>29</v>
@@ -12138,7 +12276,7 @@
         <v>123</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12146,7 +12284,7 @@
         <v>134</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>31</v>
@@ -12155,7 +12293,7 @@
         <v>136</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12180,10 +12318,10 @@
         <v>139</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D359" s="15" t="s">
         <v>140</v>
@@ -12197,10 +12335,10 @@
         <v>139</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D360" s="15" t="s">
         <v>140</v>
@@ -12214,10 +12352,10 @@
         <v>139</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D361" s="15" t="s">
         <v>140</v>
@@ -12231,10 +12369,10 @@
         <v>139</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D362" s="15" t="s">
         <v>140</v>
@@ -12248,10 +12386,10 @@
         <v>139</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D363" s="15" t="s">
         <v>140</v>
@@ -12265,10 +12403,10 @@
         <v>139</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D364" s="15" t="s">
         <v>140</v>
@@ -12282,10 +12420,10 @@
         <v>139</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D365" s="15" t="s">
         <v>140</v>
@@ -12299,10 +12437,10 @@
         <v>139</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D366" s="15" t="s">
         <v>140</v>
@@ -12316,10 +12454,10 @@
         <v>139</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D367" s="15" t="s">
         <v>140</v>
@@ -12336,7 +12474,7 @@
         <v>154</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D368" s="15" t="s">
         <v>140</v>
@@ -12353,7 +12491,7 @@
         <v>154</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D369" s="15" t="s">
         <v>140</v>
@@ -12370,7 +12508,7 @@
         <v>154</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D370" s="15" t="s">
         <v>140</v>
@@ -12413,8 +12551,268 @@
         <v>147</v>
       </c>
     </row>
+    <row r="373" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C373" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D373" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E373" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C374" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D374" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E374" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C375" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D375" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E375" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C376" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D376" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E376" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C377" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D377" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E377" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D378" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E378" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C379" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D379" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E379" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D380" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E380" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C381" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D381" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E381" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D382" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E382" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C383" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D383" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E383" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D384" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E384" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D385" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E385" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C386" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D386" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E386" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D387" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E387" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F337"/>
+  <autoFilter ref="A1:F357"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
